--- a/isitword test/ref/wordorderth_full2.xlsx
+++ b/isitword test/ref/wordorderth_full2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>word_length</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>worddir</t>
         </is>
       </c>
@@ -468,16 +473,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>มโลา</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>word/wordth0932.png</t>
+          <t>มวแ</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -489,16 +497,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>รูฟฝื้อ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>word/wordth0613.png</t>
+          <t>อตู๊บ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
@@ -507,19 +518,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>นอมห</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>word/wordth0632.png</t>
+          <t>ลุนทา</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
@@ -528,19 +542,24 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ยางลบ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>word/wordth0661.png</t>
+          <t>พัภ</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>word/wordthc203.png</t>
         </is>
       </c>
     </row>
@@ -551,17 +570,22 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>27</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>71a</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>หวี</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>word/wordth0271.png</t>
+          <t>ตะหลิว</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>word/wordth71a1.png</t>
         </is>
       </c>
     </row>
@@ -570,21 +594,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ถาว</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>word/wordthc103.png</t>
+          <t>กนแจั</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>word/wordth0262.png</t>
         </is>
       </c>
     </row>
@@ -593,19 +618,24 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>กมลอู</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>word/wordth0442.png</t>
+          <t>มะยม</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>word/wordth75a1.png</t>
         </is>
       </c>
     </row>
@@ -617,16 +647,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ปลบกน</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>word/wordth0063.png</t>
+          <t>ค้นถาพล</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
@@ -635,19 +668,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>หนตบ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>word/wordth0633.png</t>
+          <t>กหืยอเ</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
@@ -659,16 +695,19 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ขนาผฟีล</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>word/wordth0283.png</t>
+          <t>กู่บ</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
@@ -680,16 +719,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ลุนทา</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>word/wordth0443.png</t>
+          <t>ดวลโข้</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -698,19 +740,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>นรักายจ</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>word/wordth0892.png</t>
+          <t>เติน</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
@@ -719,19 +764,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ดวลโข้</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>word/wordth0503.png</t>
+          <t>รูปปั้น</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -740,19 +788,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ของขวัญ</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>word/wordth0281.png</t>
+          <t>โฟซา</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
@@ -763,17 +814,22 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>89</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>จัณกทอร</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>word/wordth0893.png</t>
+          <t>มิท</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>word/wordthc303.png</t>
         </is>
       </c>
     </row>
@@ -782,19 +838,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>มวแ</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>word/wordth0032.png</t>
+          <t>กระโดด</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
@@ -803,19 +862,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>สัหอืนง</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>word/wordth0222.png</t>
+          <t>หนนา</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
@@ -824,19 +886,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ว่าตนแ</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>word/wordth0822.png</t>
+          <t>หกันพีบ</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
@@ -845,21 +910,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>มะยม</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>word/wordth75a1.png</t>
+          <t>กมลอู</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
@@ -871,16 +937,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>กุ้ง</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>word/wordth0681.png</t>
+          <t>แจกัน</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
@@ -891,19 +960,20 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+      <c r="C22" t="n">
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>วกา</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>word/wordthc102.png</t>
+          <t>คาค้วาง</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -912,21 +982,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>95</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ดิน</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>word/wordthc301.png</t>
+          <t>ดโกดระ</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
@@ -937,17 +1008,22 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>8</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23a</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>เกี๊ยน</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>word/wordth0083.png</t>
+          <t>ภระค่าบ</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>word/wordth23a3.png</t>
         </is>
       </c>
     </row>
@@ -956,19 +1032,24 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ค้นถาพล</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>word/wordth0103.png</t>
+          <t>วกา</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>word/wordthc102.png</t>
         </is>
       </c>
     </row>
@@ -980,16 +1061,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>หนนา</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>word/wordth0073.png</t>
+          <t>อิฎ</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -998,19 +1082,22 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ค้างคาว</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>word/wordth0101.png</t>
+          <t>ดก้ไอม</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -1022,16 +1109,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>แมว</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>word/wordth0031.png</t>
+          <t>หวี</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
@@ -1040,19 +1130,24 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23a</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ฐอิ</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>word/wordth0422.png</t>
+          <t>กระต่าย</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>word/wordth23a1.png</t>
         </is>
       </c>
     </row>
@@ -1061,19 +1156,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ไย้นทีล</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>word/wordth0243.png</t>
+          <t>ยางลบ</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
@@ -1082,19 +1180,22 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>เติน</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>word/wordth0303.png</t>
+          <t>หมวก</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -1103,21 +1204,22 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>มิท</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>word/wordthc303.png</t>
+          <t>สว่าน</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>word/wordth0411.png</t>
         </is>
       </c>
     </row>
@@ -1126,21 +1228,24 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>d1</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>กวาง</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>word/wordthd101.png</t>
+          <t>มาห</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>word/wordthc402.png</t>
         </is>
       </c>
     </row>
@@ -1152,16 +1257,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ไม้เท้า</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>word/wordth0241.png</t>
+          <t>เข็มขัด</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
@@ -1170,21 +1278,22 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ดนิ</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>word/wordthc302.png</t>
+          <t>ปากกา</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
@@ -1193,19 +1302,22 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>เรือ</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>word/wordth0301.png</t>
+          <t>โผฝบ</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1328,22 @@
       <c r="B37" t="n">
         <v>1</v>
       </c>
-      <c r="C37" t="n">
-        <v>88</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>น้ำหอม</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>word/wordth0881.png</t>
+          <t>กวาง</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>word/wordthd101.png</t>
         </is>
       </c>
     </row>
@@ -1235,19 +1352,22 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>หวมก</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>word/wordth0072.png</t>
+          <t>ฟวยวิ้บ</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
@@ -1260,17 +1380,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>71a</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ตะหลิว</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>word/wordth71a1.png</t>
+          <t>หมา</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>word/wordthc401.png</t>
         </is>
       </c>
     </row>
@@ -1279,19 +1402,22 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>โบลม</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>word/wordth0933.png</t>
+          <t>นอมห</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
@@ -1300,19 +1426,22 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>แรน</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>word/wordth0033.png</t>
+          <t>ฐอิ</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
@@ -1321,19 +1450,22 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>เข็มขัด</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>word/wordth0311.png</t>
+          <t>นดถูค</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
@@ -1342,19 +1474,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ล่เอืย</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>word/wordth0082.png</t>
+          <t>แย้บคา</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
@@ -1363,19 +1498,22 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ป้ปันรู</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>word/wordth0612.png</t>
+          <t>ขนาผฟีล</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
@@ -1384,19 +1522,24 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>แว่นตา</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>word/wordth0821.png</t>
+          <t>นะบม</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>word/wordth75a3.png</t>
         </is>
       </c>
     </row>
@@ -1405,19 +1548,22 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ดอกไม้</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>word/wordth0501.png</t>
+          <t>ยอนวบ</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
@@ -1426,19 +1572,22 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ท้เาไม้</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>word/wordth0242.png</t>
+          <t>หวึ</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
@@ -1447,19 +1596,24 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>วหี</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>word/wordth0272.png</t>
+          <t>ผัก</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>word/wordthc201.png</t>
         </is>
       </c>
     </row>
@@ -1470,17 +1624,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" t="n">
-        <v>27</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>หวึ</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>word/wordth0273.png</t>
+          <t>ถาว</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>word/wordthc103.png</t>
         </is>
       </c>
     </row>
@@ -1489,19 +1648,22 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>องุ่น</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>word/wordth0521.png</t>
+          <t>จัณกทอร</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -1510,19 +1672,24 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>บายงล</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>word/wordth0662.png</t>
+          <t>ดิน</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>word/wordthc301.png</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1701,19 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>เน้บลีต</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>word/wordth0313.png</t>
+          <t>แรน</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
@@ -1552,19 +1722,22 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>กงุ้</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>word/wordth0682.png</t>
+          <t>หนังสือ</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1749,19 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>สมอ</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>word/wordth0641.png</t>
+          <t>แว่นตา</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -1594,19 +1770,22 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>กหืยอเ</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>word/wordth0112.png</t>
+          <t>ตระโดก</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
@@ -1618,16 +1797,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>จักรยาน</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>word/wordth0891.png</t>
+          <t>หมอน</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
@@ -1636,21 +1818,22 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>42</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ภระค่าบ</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>word/wordth23a3.png</t>
+          <t>อิฐ</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
@@ -1659,21 +1842,22 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>87</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>กผั</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>word/wordthc202.png</t>
+          <t>นกยูง</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -1682,19 +1866,24 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="n">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>แสนืร</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>word/wordth0263.png</t>
+          <t>มยะม</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>word/wordth75a2.png</t>
         </is>
       </c>
     </row>
@@ -1703,21 +1892,22 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>24</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>หมา</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>word/wordthc401.png</t>
+          <t>ท้เาไม้</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
@@ -1726,19 +1916,22 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>คาค้วาง</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>word/wordth0102.png</t>
+          <t>โบลม</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -1750,16 +1943,19 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>อืเร</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>word/wordth0302.png</t>
+          <t>มสอ</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -1771,16 +1967,19 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>อตู๊บ</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>word/wordth0523.png</t>
+          <t>ไย้นทีล</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
@@ -1789,19 +1988,22 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>โผฝบ</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>word/wordth0513.png</t>
+          <t>องุ่น</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -1810,21 +2012,22 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>กาว</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>word/wordthc101.png</t>
+          <t>ล่เอืย</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
@@ -1836,16 +2039,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>รูปปั้น</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>word/wordth0611.png</t>
+          <t>แมว</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -1854,19 +2060,22 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
+        <v>61</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ป้ปันรู</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>7</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>หมวก</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>word/wordth0071.png</t>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
@@ -1877,19 +2086,20 @@
       <c r="B68" t="n">
         <v>2</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
+      <c r="C68" t="n">
+        <v>27</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>วงาก</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>word/wordthd102.png</t>
+          <t>วหี</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
@@ -1898,21 +2108,24 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>23a</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ทนา</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>word/wordthc403.png</t>
+          <t>รากยต่ะ</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>word/wordth23a2.png</t>
         </is>
       </c>
     </row>
@@ -1921,21 +2134,22 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>นะบม</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>word/wordth75a3.png</t>
+          <t>กุ้ง</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
@@ -1944,19 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>กระโดด</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>word/wordth0951.png</t>
+          <t>าากปก</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
@@ -1968,16 +2185,19 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>อำนฟ้ง</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>word/wordth0702.png</t>
+          <t>น้มอหำ</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
@@ -1989,16 +2209,19 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>อิฎ</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>word/wordth0423.png</t>
+          <t>เกี๊ยน</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -2010,16 +2233,19 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ขเดมัข็</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>word/wordth0312.png</t>
+          <t>บายงล</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
@@ -2028,19 +2254,22 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>นดถูค</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>word/wordth0873.png</t>
+          <t>โลมา</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
@@ -2049,21 +2278,22 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>44</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>วิหะตล</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>word/wordth71a2.png</t>
+          <t>ลูกอม</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
@@ -2072,19 +2302,22 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>สวก</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>word/wordth0643.png</t>
+          <t>ค้างคาว</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
@@ -2096,16 +2329,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ดก้ไอม</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>word/wordth0502.png</t>
+          <t>อืเร</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -2114,19 +2350,22 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>โฟซา</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>word/wordth0512.png</t>
+          <t>สวก</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
@@ -2135,21 +2374,22 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>28</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>มาห</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>word/wordthc402.png</t>
+          <t>ของขวัญ</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -2158,19 +2398,22 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>เกนีทน</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>word/wordth0113.png</t>
+          <t>มโลา</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -2179,19 +2422,22 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>โลมา</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>word/wordth0931.png</t>
+          <t>ะมาวน</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
@@ -2200,21 +2446,22 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>24</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>รากยต่ะ</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>word/wordth23a2.png</t>
+          <t>ไม้เท้า</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -2223,19 +2470,22 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>มะนาว</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>word/wordth0481.png</t>
+          <t>ขเดมัข็</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>7</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
@@ -2244,19 +2494,22 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>นี้นยาค</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>word/wordth0883.png</t>
+          <t>มะนาว</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -2268,16 +2521,19 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
+        <v>11</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>เหยือก</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>6</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>ปากกา</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>word/wordth0061.png</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -2286,19 +2542,24 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>หกันพีบ</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>word/wordth0223.png</t>
+          <t>กผั</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>word/wordthc202.png</t>
         </is>
       </c>
     </row>
@@ -2307,19 +2568,22 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>กู่บ</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>word/wordth0683.png</t>
+          <t>สัหอืนง</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -2328,19 +2592,22 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>หมอน</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>word/wordth0631.png</t>
+          <t>รูฟฝื้อ</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
@@ -2349,21 +2616,24 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>71a</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ดะหลิว</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>word/wordth71a3.png</t>
+          <t>ดนิ</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>word/wordthc302.png</t>
         </is>
       </c>
     </row>
@@ -2372,19 +2642,24 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ฟวยวิ้บ</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>word/wordth0703.png</t>
+          <t>กาว</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>word/wordthc101.png</t>
         </is>
       </c>
     </row>
@@ -2393,19 +2668,22 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>มสอ</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>word/wordth0642.png</t>
+          <t>สยึนบ</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -2414,21 +2692,24 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23a</t>
+          <t>71a</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>กระต่าย</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>word/wordth23a1.png</t>
+          <t>ดะหลิว</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>word/wordth71a3.png</t>
         </is>
       </c>
     </row>
@@ -2440,16 +2721,19 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>เหยือก</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>word/wordth0111.png</t>
+          <t>สมอ</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
@@ -2461,16 +2745,19 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>มนเจร</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>word/wordth0483.png</t>
+          <t>หนตบ</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
@@ -2479,19 +2766,22 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>แย้บคา</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>word/wordth0823.png</t>
+          <t>ยูกนง</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -2503,16 +2793,19 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>เลื่อย</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>word/wordth0081.png</t>
+          <t>โซฟา</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -2521,21 +2814,22 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>48</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ผัก</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>word/wordthc201.png</t>
+          <t>มนเจร</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
@@ -2547,16 +2841,19 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ะมาวน</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>word/wordth0482.png</t>
+          <t>นุง่อ</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
@@ -2565,19 +2862,22 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>นุง่อ</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>word/wordth0522.png</t>
+          <t>เลื่อย</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -2586,19 +2886,24 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>หนังสือ</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>word/wordth0221.png</t>
+          <t>ถาวง</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>word/wordthd103.png</t>
         </is>
       </c>
     </row>
@@ -2607,19 +2912,22 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>สยึนบ</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>word/wordth0413.png</t>
+          <t>จักรยาน</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
@@ -2628,19 +2936,22 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ตระโดก</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>word/wordth0953.png</t>
+          <t>ฟองน้ำ</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
@@ -2649,19 +2960,22 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ยอนวบ</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>word/wordth0663.png</t>
+          <t>อำนฟ้ง</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -2673,16 +2987,19 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ยูกนง</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>word/wordth0872.png</t>
+          <t>กงุ้</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -2691,19 +3008,22 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>โซฟา</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>word/wordth0511.png</t>
+          <t>นี้นยาค</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -2714,19 +3034,20 @@
       <c r="B107" t="n">
         <v>3</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
+      <c r="C107" t="n">
+        <v>6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ถาวง</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>word/wordthd103.png</t>
+          <t>ปลบกน</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
@@ -2735,19 +3056,22 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>แจกัน</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>word/wordth0261.png</t>
+          <t>นรักายจ</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
@@ -2759,16 +3083,19 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ฟองน้ำ</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>word/wordth0701.png</t>
+          <t>ดอกไม้</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -2780,16 +3107,19 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>กนแจั</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>word/wordth0262.png</t>
+          <t>ว่าตนแ</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -2798,21 +3128,22 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>พัภ</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>word/wordthc203.png</t>
+          <t>เรือ</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>word/wordth0301.png</t>
         </is>
       </c>
     </row>
@@ -2823,17 +3154,22 @@
       <c r="B112" t="n">
         <v>2</v>
       </c>
-      <c r="C112" t="n">
-        <v>6</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>าากปก</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>word/wordth0062.png</t>
+          <t>วงาก</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>word/wordthd102.png</t>
         </is>
       </c>
     </row>
@@ -2842,19 +3178,24 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>สว่าน</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>word/wordth0411.png</t>
+          <t>ทนา</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>word/wordthc403.png</t>
         </is>
       </c>
     </row>
@@ -2873,7 +3214,10 @@
           <t>ขัวองญข</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>word/wordth0282.png</t>
         </is>
@@ -2884,21 +3228,22 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>88</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>มยะม</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>word/wordth75a2.png</t>
+          <t>น้ำหอม</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
@@ -2907,19 +3252,22 @@
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>นกยูง</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>word/wordth0871.png</t>
+          <t>นวาส่</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>5</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -2928,19 +3276,24 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>71a</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ลูกอม</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>word/wordth0441.png</t>
+          <t>วิหะตล</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>6</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>word/wordth71a2.png</t>
         </is>
       </c>
     </row>
@@ -2952,16 +3305,19 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>นวาส่</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>word/wordth0412.png</t>
+          <t>หวมก</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
@@ -2970,19 +3326,22 @@
         <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ดโกดระ</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>word/wordth0952.png</t>
+          <t>แสนืร</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -2991,19 +3350,22 @@
         <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>น้มอหำ</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>word/wordth0882.png</t>
+          <t>เกนีทน</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>6</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
@@ -3012,19 +3374,22 @@
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>อิฐ</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>word/wordth0421.png</t>
+          <t>เน้บลีต</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>7</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
